--- a/journey_begins/Home_Page/bus_list.xlsx
+++ b/journey_begins/Home_Page/bus_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sece_Hackathon\journey_begins\Home_Page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E36D702-BBE4-4D26-BBD1-D76EA5CC4A1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698F7769-16BE-4CB9-8AD9-77332F421E08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A1284A6-2B64-4B9E-8485-1377850CB583}"/>
   </bookViews>
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
   <si>
-    <t>From</t>
-  </si>
-  <si>
     <t>To</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Sundhara</t>
+  </si>
+  <si>
+    <t>Froms</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05A11C3-34FE-4A7E-833E-201B0410552F}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,16 +567,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -589,13 +589,13 @@
     </row>
     <row r="2" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>200</v>
@@ -611,13 +611,13 @@
     </row>
     <row r="3" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>300</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="4" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>500</v>
@@ -655,13 +655,13 @@
     </row>
     <row r="5" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>450</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="6" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>350</v>
@@ -699,13 +699,13 @@
     </row>
     <row r="7" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>300</v>
@@ -721,13 +721,13 @@
     </row>
     <row r="8" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
         <v>200</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="9" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>500</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="10" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>600</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="11" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1">
         <v>700</v>
@@ -809,13 +809,13 @@
     </row>
     <row r="12" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>450</v>
@@ -831,13 +831,13 @@
     </row>
     <row r="13" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>550</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="14" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
         <v>450</v>
@@ -875,13 +875,13 @@
     </row>
     <row r="15" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1">
         <v>350</v>
@@ -897,13 +897,13 @@
     </row>
     <row r="16" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1">
         <v>400</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="17" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
         <v>600</v>
@@ -941,13 +941,13 @@
     </row>
     <row r="18" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
         <v>550</v>
@@ -963,13 +963,13 @@
     </row>
     <row r="19" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1">
         <v>750</v>
@@ -985,13 +985,13 @@
     </row>
     <row r="20" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1">
         <v>800</v>
@@ -1007,13 +1007,13 @@
     </row>
     <row r="21" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1">
         <v>650</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="22" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
         <v>450</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="23" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1">
         <v>400</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="24" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="1">
         <v>300</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="25" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1">
         <v>200</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="26" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1">
         <v>400</v>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="27" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" s="1">
         <v>500</v>
@@ -1113,13 +1113,13 @@
     </row>
     <row r="28" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1">
         <v>600</v>
@@ -1127,13 +1127,13 @@
     </row>
     <row r="29" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="1">
         <v>700</v>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="30" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1">
         <v>800</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="31" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="1">
         <v>350</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="32" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="1">
         <v>650</v>
@@ -1183,13 +1183,13 @@
     </row>
     <row r="33" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="1">
         <v>689</v>
@@ -1197,13 +1197,13 @@
     </row>
     <row r="34" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="1">
         <v>351</v>
@@ -1211,13 +1211,13 @@
     </row>
     <row r="35" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1">
         <v>325</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="36" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="1">
         <v>650</v>
@@ -1239,13 +1239,13 @@
     </row>
     <row r="37" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1">
         <v>140</v>
@@ -1253,13 +1253,13 @@
     </row>
     <row r="38" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1">
         <v>520</v>
@@ -1267,13 +1267,13 @@
     </row>
     <row r="39" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D39" s="1">
         <v>420</v>
